--- a/lab3/lab3.xlsx
+++ b/lab3/lab3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vadim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\electroch_labs\lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Uдиода</t>
   </si>
@@ -49,13 +49,19 @@
     <t>Uпульс</t>
   </si>
   <si>
-    <t>Uнапр</t>
-  </si>
-  <si>
     <t>Uнагр</t>
   </si>
   <si>
     <t>Iнагр, мА</t>
+  </si>
+  <si>
+    <t>Iдиода</t>
+  </si>
+  <si>
+    <t>Теор.:</t>
+  </si>
+  <si>
+    <t>Теор.</t>
   </si>
 </sst>
 </file>
@@ -63,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -97,7 +103,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -153,7 +159,7 @@
             <c:v>x</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -291,6 +297,121 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>theor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="4">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="4">
+                  <c:v>8.47337220028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.862082387199999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.593350274300001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.1990776998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.421898276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45.298666253500002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.2770224597</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>88.378141967600001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123.423960024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>172.35442158500001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>240.67042050800001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>336.05222480600003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4412-4DDD-BCD5-CCA1ECDD18A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -306,7 +427,8 @@
         <c:axId val="334418352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
+          <c:max val="0.8"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -442,6 +564,7 @@
         <c:axId val="334419336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="350"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -654,7 +777,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -783,6 +906,139 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D37A-494F-AA8B-5BDBD92E1E7D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>theor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$X$2:$X$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Z$2:$Z$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.13333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93333333333333346</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8666666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5C0C-475C-B2B0-CF9394DAA5B1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -944,6 +1200,7 @@
         <c:axId val="334419336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1159,7 +1416,7 @@
             <c:v>x</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1288,6 +1545,139 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-675F-4043-9A88-9147DCEF2154}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>theor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$X$2:$X$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$Y$2:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.4382376457900001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.3199608536599996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2541387401000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.2039345080500006</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.1613668281099994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1233431907300009</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0883368634800004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0554809977299993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.0242358059099992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.9942422607700001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.9652494307700001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.9370750170199997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9095824022499999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.8826665575700003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.8562449970900001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D68-4348-81BE-A524BEAD0EAE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1449,6 +1839,7 @@
         <c:axId val="334419336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="7"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1661,7 +2052,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -1778,6 +2169,139 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-147A-49DF-87A4-F925049ED6E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>theor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$Y$2:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$AA$2:$AA$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>6.6666666666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.46666666666666673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5333333333333334</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.9333333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1B0-49C2-9A9C-525A0896B034}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1939,6 +2463,7 @@
         <c:axId val="334419336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2151,7 +2676,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="12700" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
@@ -2166,7 +2691,7 @@
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
@@ -2268,6 +2793,139 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-74F4-4EE7-A3C3-402C74EC52BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>theor</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$Y$2:$Y$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$Z$2:$Z$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>8.4282376457900003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.2899608536600002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2041387400999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1339345080500003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0713668281099995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0133431907299997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9583368634799996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9054809977299998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.8542358059100001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.8042422607699997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7552494307700002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.7070750170200002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.6595824022499999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.6126665575699999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5662449970900001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3066-4BC2-B03F-A633399B6082}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2429,7 +3087,7 @@
         <c:axId val="334419336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0"/>
+          <c:min val="7"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5824,10 +6482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5835,7 +6493,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -5851,8 +6509,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="P1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5.23</v>
       </c>
@@ -5870,7 +6537,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5.21</v>
       </c>
@@ -5888,7 +6555,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5.2</v>
       </c>
@@ -5906,7 +6573,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5.19</v>
       </c>
@@ -5924,7 +6591,7 @@
         <v>69.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.18</v>
       </c>
@@ -5941,8 +6608,14 @@
       <c r="E6">
         <v>89.3</v>
       </c>
+      <c r="Q6">
+        <v>0.42</v>
+      </c>
+      <c r="R6">
+        <v>8.47337220028</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5.17</v>
       </c>
@@ -5959,8 +6632,14 @@
       <c r="E7">
         <v>109.3</v>
       </c>
+      <c r="Q7">
+        <v>0.45</v>
+      </c>
+      <c r="R7">
+        <v>11.862082387199999</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.16</v>
       </c>
@@ -5977,8 +6656,14 @@
       <c r="E8">
         <v>129.30000000000001</v>
       </c>
+      <c r="Q8">
+        <v>0.48</v>
+      </c>
+      <c r="R8">
+        <v>16.593350274300001</v>
+      </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.15</v>
       </c>
@@ -5995,8 +6680,14 @@
       <c r="E9">
         <v>149.30000000000001</v>
       </c>
+      <c r="Q9">
+        <v>0.51</v>
+      </c>
+      <c r="R9">
+        <v>23.1990776998</v>
+      </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.14</v>
       </c>
@@ -6013,8 +6704,14 @@
       <c r="E10">
         <v>169.3</v>
       </c>
+      <c r="Q10">
+        <v>0.54</v>
+      </c>
+      <c r="R10">
+        <v>32.421898276</v>
+      </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.14</v>
       </c>
@@ -6031,8 +6728,14 @@
       <c r="E11">
         <v>189.3</v>
       </c>
+      <c r="Q11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="R11">
+        <v>45.298666253500002</v>
+      </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.12</v>
       </c>
@@ -6049,8 +6752,14 @@
       <c r="E12">
         <v>209.3</v>
       </c>
+      <c r="Q12">
+        <v>0.6</v>
+      </c>
+      <c r="R12">
+        <v>63.2770224597</v>
+      </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5.1100000000000003</v>
       </c>
@@ -6067,8 +6776,14 @@
       <c r="E13">
         <v>229.3</v>
       </c>
+      <c r="Q13">
+        <v>0.63</v>
+      </c>
+      <c r="R13">
+        <v>88.378141967600001</v>
+      </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5.0999999999999996</v>
       </c>
@@ -6085,8 +6800,14 @@
       <c r="E14">
         <v>249.3</v>
       </c>
+      <c r="Q14">
+        <v>0.66</v>
+      </c>
+      <c r="R14">
+        <v>123.423960024</v>
+      </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5.0999999999999996</v>
       </c>
@@ -6103,8 +6824,14 @@
       <c r="E15">
         <v>269.3</v>
       </c>
+      <c r="Q15">
+        <v>0.69</v>
+      </c>
+      <c r="R15">
+        <v>172.35442158500001</v>
+      </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5.09</v>
       </c>
@@ -6120,6 +6847,20 @@
       </c>
       <c r="E16">
         <v>289.3</v>
+      </c>
+      <c r="Q16">
+        <v>0.72</v>
+      </c>
+      <c r="R16">
+        <v>240.67042050800001</v>
+      </c>
+    </row>
+    <row r="17" spans="17:18" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>0.75</v>
+      </c>
+      <c r="R17">
+        <v>336.05222480600003</v>
       </c>
     </row>
   </sheetData>
@@ -6130,29 +6871,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:Z25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="A2:D15"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="W1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.249</v>
       </c>
@@ -6165,8 +6918,18 @@
       <c r="D2" s="2">
         <v>0.2</v>
       </c>
+      <c r="X2">
+        <v>10</v>
+      </c>
+      <c r="Y2">
+        <v>8.4382376457900001</v>
+      </c>
+      <c r="Z2">
+        <f>X2*0.02/1.5</f>
+        <v>0.13333333333333333</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.60099999999999998</v>
       </c>
@@ -6179,8 +6942,18 @@
       <c r="D3" s="2">
         <v>0.432</v>
       </c>
+      <c r="X3">
+        <v>30</v>
+      </c>
+      <c r="Y3">
+        <v>8.3199608536599996</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" ref="Z3:Z16" si="0">X3*0.02/1.5</f>
+        <v>0.39999999999999997</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.89900000000000002</v>
       </c>
@@ -6193,8 +6966,18 @@
       <c r="D4" s="2">
         <v>0.60799999999999998</v>
       </c>
+      <c r="X4">
+        <v>50</v>
+      </c>
+      <c r="Y4">
+        <v>8.2541387401000001</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1.2030000000000001</v>
       </c>
@@ -6207,8 +6990,18 @@
       <c r="D5" s="2">
         <v>0.76800000000000002</v>
       </c>
+      <c r="X5">
+        <v>70</v>
+      </c>
+      <c r="Y5">
+        <v>8.2039345080500006</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333346</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1.51</v>
       </c>
@@ -6221,8 +7014,18 @@
       <c r="D6" s="2">
         <v>0.98399999999999999</v>
       </c>
+      <c r="X6">
+        <v>90</v>
+      </c>
+      <c r="Y6">
+        <v>8.1613668281099994</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.8320000000000001</v>
       </c>
@@ -6235,8 +7038,18 @@
       <c r="D7" s="2">
         <v>1.1299999999999999</v>
       </c>
+      <c r="X7">
+        <v>110</v>
+      </c>
+      <c r="Y7">
+        <v>8.1233431907300009</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="0"/>
+        <v>1.4666666666666668</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.15</v>
       </c>
@@ -6249,8 +7062,18 @@
       <c r="D8" s="2">
         <v>1.29</v>
       </c>
+      <c r="X8">
+        <v>130</v>
+      </c>
+      <c r="Y8">
+        <v>8.0883368634800004</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="0"/>
+        <v>1.7333333333333334</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.41</v>
       </c>
@@ -6263,8 +7086,18 @@
       <c r="D9" s="2">
         <v>1.49</v>
       </c>
+      <c r="X9">
+        <v>150</v>
+      </c>
+      <c r="Y9">
+        <v>8.0554809977299993</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2.7</v>
       </c>
@@ -6277,8 +7110,18 @@
       <c r="D10" s="2">
         <v>1.62</v>
       </c>
+      <c r="X10">
+        <v>170</v>
+      </c>
+      <c r="Y10">
+        <v>8.0242358059099992</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="0"/>
+        <v>2.2666666666666666</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3.03</v>
       </c>
@@ -6291,8 +7134,18 @@
       <c r="D11" s="2">
         <v>1.8</v>
       </c>
+      <c r="X11">
+        <v>190</v>
+      </c>
+      <c r="Y11">
+        <v>7.9942422607700001</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="0"/>
+        <v>2.5333333333333337</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>3.25</v>
       </c>
@@ -6305,8 +7158,18 @@
       <c r="D12" s="2">
         <v>1.92</v>
       </c>
+      <c r="X12">
+        <v>210</v>
+      </c>
+      <c r="Y12">
+        <v>7.9652494307700001</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="0"/>
+        <v>2.8000000000000003</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>3.68</v>
       </c>
@@ -6319,8 +7182,18 @@
       <c r="D13" s="2">
         <v>2.12</v>
       </c>
+      <c r="X13">
+        <v>230</v>
+      </c>
+      <c r="Y13">
+        <v>7.9370750170199997</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="0"/>
+        <v>3.0666666666666669</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -6333,8 +7206,18 @@
       <c r="D14" s="2">
         <v>2.2799999999999998</v>
       </c>
+      <c r="X14">
+        <v>250</v>
+      </c>
+      <c r="Y14">
+        <v>7.9095824022499999</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4.3499999999999996</v>
       </c>
@@ -6347,12 +7230,32 @@
       <c r="D15" s="2">
         <v>2.48</v>
       </c>
+      <c r="X15">
+        <v>270</v>
+      </c>
+      <c r="Y15">
+        <v>7.8826665575700003</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
+      <c r="X16">
+        <v>290</v>
+      </c>
+      <c r="Y16">
+        <v>7.8562449970900001</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" si="0"/>
+        <v>3.8666666666666667</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
@@ -6396,15 +7299,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="A2:D13"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6417,8 +7320,20 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0.251</v>
       </c>
@@ -6431,8 +7346,18 @@
       <c r="D2" s="1">
         <v>8.9499999999999993</v>
       </c>
+      <c r="Y2">
+        <v>10</v>
+      </c>
+      <c r="Z2">
+        <v>8.4282376457900003</v>
+      </c>
+      <c r="AA2">
+        <f>Y2*0.01/1.5</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>0.60199999999999998</v>
       </c>
@@ -6445,8 +7370,18 @@
       <c r="D3" s="1">
         <v>8.92</v>
       </c>
+      <c r="Y3">
+        <v>30</v>
+      </c>
+      <c r="Z3">
+        <v>8.2899608536600002</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" ref="AA3:AA16" si="0">Y3*0.01/1.5</f>
+        <v>0.19999999999999998</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>0.89300000000000002</v>
       </c>
@@ -6459,8 +7394,18 @@
       <c r="D4" s="1">
         <v>8.83</v>
       </c>
+      <c r="Y4">
+        <v>50</v>
+      </c>
+      <c r="Z4">
+        <v>8.2041387400999994</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1.2050000000000001</v>
       </c>
@@ -6473,8 +7418,18 @@
       <c r="D5" s="1">
         <v>8.7799999999999994</v>
       </c>
+      <c r="Y5">
+        <v>70</v>
+      </c>
+      <c r="Z5">
+        <v>8.1339345080500003</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666673</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1.5109999999999999</v>
       </c>
@@ -6487,8 +7442,18 @@
       <c r="D6" s="1">
         <v>8.57</v>
       </c>
+      <c r="Y6">
+        <v>90</v>
+      </c>
+      <c r="Z6">
+        <v>8.0713668281099995</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1.8740000000000001</v>
       </c>
@@ -6501,8 +7466,18 @@
       <c r="D7" s="1">
         <v>8.4700000000000006</v>
       </c>
+      <c r="Y7">
+        <v>110</v>
+      </c>
+      <c r="Z7">
+        <v>8.0133431907299997</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333339</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2.23</v>
       </c>
@@ -6515,8 +7490,18 @@
       <c r="D8" s="1">
         <v>8.25</v>
       </c>
+      <c r="Y8">
+        <v>130</v>
+      </c>
+      <c r="Z8">
+        <v>7.9583368634799996</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2.61</v>
       </c>
@@ -6529,8 +7514,18 @@
       <c r="D9" s="1">
         <v>8.23</v>
       </c>
+      <c r="Y9">
+        <v>150</v>
+      </c>
+      <c r="Z9">
+        <v>7.9054809977299998</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2.92</v>
       </c>
@@ -6543,8 +7538,18 @@
       <c r="D10" s="1">
         <v>8.09</v>
       </c>
+      <c r="Y10">
+        <v>170</v>
+      </c>
+      <c r="Z10">
+        <v>7.8542358059100001</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>1.1333333333333333</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>3.46</v>
       </c>
@@ -6557,8 +7562,18 @@
       <c r="D11" s="1">
         <v>7.96</v>
       </c>
+      <c r="Y11">
+        <v>190</v>
+      </c>
+      <c r="Z11">
+        <v>7.8042422607699997</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>1.2666666666666668</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>4.08</v>
       </c>
@@ -6571,8 +7586,18 @@
       <c r="D12" s="1">
         <v>7.79</v>
       </c>
+      <c r="Y12">
+        <v>210</v>
+      </c>
+      <c r="Z12">
+        <v>7.7552494307700002</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>1.4000000000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4.49</v>
       </c>
@@ -6584,10 +7609,57 @@
       </c>
       <c r="D13" s="1">
         <v>7.63</v>
+      </c>
+      <c r="Y13">
+        <v>230</v>
+      </c>
+      <c r="Z13">
+        <v>7.7070750170200002</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>1.5333333333333334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y14">
+        <v>250</v>
+      </c>
+      <c r="Z14">
+        <v>7.6595824022499999</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y15">
+        <v>270</v>
+      </c>
+      <c r="Z15">
+        <v>7.6126665575699999</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="Y16">
+        <v>290</v>
+      </c>
+      <c r="Z16">
+        <v>7.5662449970900001</v>
+      </c>
+      <c r="AA16">
+        <f t="shared" si="0"/>
+        <v>1.9333333333333333</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>